--- a/biology/Botanique/Bleuet_(fruit)/Bleuet_(fruit).xlsx
+++ b/biology/Botanique/Bleuet_(fruit)/Bleuet_(fruit).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bleuet (au Canada[1]) ou bluet[2], est une baie qui pousse sur des arbustes du genre Vaccinium originaires d'Amérique du Nord où on les trouve principalement. Cette baie est proche de celle de la myrtille commune (Vaccinium myrtillus), mais possède toutefois des caractéristiques différentes comme sa coloration, son goût légèrement moins sucré et des propriétés spécifiques[3]. Le bleuet sauvage est de très petite taille tandis que le bleuet cultivé est de plus grande taille.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bleuet (au Canada) ou bluet, est une baie qui pousse sur des arbustes du genre Vaccinium originaires d'Amérique du Nord où on les trouve principalement. Cette baie est proche de celle de la myrtille commune (Vaccinium myrtillus), mais possède toutefois des caractéristiques différentes comme sa coloration, son goût légèrement moins sucré et des propriétés spécifiques. Le bleuet sauvage est de très petite taille tandis que le bleuet cultivé est de plus grande taille.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est le fruit de différentes espèces[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est le fruit de différentes espèces :
 Bleuet à feuilles étroites (Vaccinium angustifolium)
 Bleuet sauvage (Vaccinium myrtilloides)
 Bleuet géant ou bleuet en corymbes (Vaccinium corymbosum). L'espèce cultivée, arbustive à gros fruits, introduite sur d'autres continents.
@@ -550,7 +564,9 @@
           <t>Fruits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à la myrtille, le bleuet a une chair blanche qui ne tache presque pas quand elle est crue.
 Le bleuet géant est commercialisé en France sous l'appellation bluet des Vosges, devenue « bleu vert Vosges » depuis 2006.
